--- a/6/profile_overview.xlsx
+++ b/6/profile_overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="520" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" state="visible" r:id="rId2"/>
@@ -380,7 +380,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +391,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFE6E6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -453,7 +459,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -483,10 +489,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -530,10 +532,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -546,15 +544,43 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -570,7 +596,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Bad" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Bad" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -640,15 +666,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -663,8 +689,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="543240"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="534240"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -676,15 +702,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>111240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1172160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>1198800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,8 +725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1913040" y="1124280"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1940040" y="1115280"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,15 +738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -735,8 +761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="1686240"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="1677240"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,15 +774,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -771,8 +797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="2257920"/>
-          <a:ext cx="1087920" cy="333720"/>
+          <a:off x="1930320" y="2248920"/>
+          <a:ext cx="1087560" cy="333360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,15 +810,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -807,8 +833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="2838600"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="2829600"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,15 +846,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1163880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>1190520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -843,8 +869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="3400920"/>
-          <a:ext cx="1089360" cy="333720"/>
+          <a:off x="1930320" y="3391920"/>
+          <a:ext cx="1089000" cy="333360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,15 +882,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -879,8 +905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="3991320"/>
-          <a:ext cx="1087920" cy="327960"/>
+          <a:off x="1930320" y="3982320"/>
+          <a:ext cx="1087560" cy="327600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,15 +918,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -915,8 +941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="4543920"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="4534920"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,15 +954,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -951,8 +977,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="5115240"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="5106240"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,15 +990,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>111240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1172160</xdr:colOff>
+      <xdr:colOff>1198800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -987,8 +1013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1913040" y="5686920"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1940040" y="5677920"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,15 +1026,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1023,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="6258240"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="6249240"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,15 +1062,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1059,8 +1085,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="6839280"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="6830280"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,15 +1098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1095,8 +1121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="7401240"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="7392240"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,15 +1134,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1131,8 +1157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="7972920"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="7963920"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,15 +1170,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1167,8 +1193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="8544240"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="8535240"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,15 +1206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1203,8 +1229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="9125280"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="9116280"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,15 +1242,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1239,8 +1265,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="9696600"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="9687600"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,15 +1278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>101520</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>340200</xdr:rowOff>
+      <xdr:rowOff>330840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1275,8 +1301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="10249560"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="10240560"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,15 +1314,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1311,8 +1337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="10830240"/>
-          <a:ext cx="1087920" cy="327960"/>
+          <a:off x="1930320" y="10821240"/>
+          <a:ext cx="1087560" cy="327600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,15 +1350,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1347,8 +1373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="11620800"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="11611800"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,15 +1386,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1383,8 +1409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="12192480"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="12183480"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,15 +1422,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>101520</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1419,8 +1445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="12763800"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="12754800"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,15 +1458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1455,8 +1481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="13326120"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="13317120"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,15 +1494,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1491,8 +1517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="13906800"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="13897800"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1504,15 +1530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1527,8 +1553,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="14469120"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="14460120"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,15 +1566,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1563,8 +1589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="15049800"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="15040800"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,15 +1602,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,8 +1625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="15621480"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="15612480"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,15 +1638,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1635,8 +1661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="16211880"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="16202880"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,15 +1674,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1671,8 +1697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="16783560"/>
-          <a:ext cx="1087920" cy="331920"/>
+          <a:off x="1930320" y="16774560"/>
+          <a:ext cx="1087560" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,15 +1710,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>96840</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1157760</xdr:colOff>
+      <xdr:colOff>1184400</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1707,8 +1733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1898640" y="17333280"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1925640" y="17324280"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,15 +1746,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1743,8 +1769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="17912160"/>
-          <a:ext cx="1087920" cy="327960"/>
+          <a:off x="1930320" y="17903160"/>
+          <a:ext cx="1087560" cy="327600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,15 +1782,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1779,8 +1805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="18469440"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="18460440"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,15 +1818,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1815,8 +1841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="19045800"/>
-          <a:ext cx="1087920" cy="327960"/>
+          <a:off x="1930320" y="19036800"/>
+          <a:ext cx="1087560" cy="327600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,15 +1854,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1851,8 +1877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903320" y="19609920"/>
-          <a:ext cx="1087920" cy="332280"/>
+          <a:off x="1930320" y="19600920"/>
+          <a:ext cx="1087560" cy="331920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,10 +1897,8 @@
   </sheetPr>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A3" xSplit="0" ySplit="2"/>
-      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
-      <selection activeCell="O5" activeCellId="0" pane="bottomLeft" sqref="O5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -1904,78 +1928,78 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="9">
-      <c r="A2" s="9" t="s">
+      <c r="K1" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="8">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="4"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1986,64 +2010,64 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="15" t="n">
+      <c r="C4" s="17"/>
+      <c r="D4" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="14" t="n">
         <v>6.43</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="n">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="n">
         <v>0.65</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="14" t="n">
         <v>0.65</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="B5" s="4"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
@@ -2052,132 +2076,135 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15" t="n">
+      <c r="C7" s="17"/>
+      <c r="D7" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="14" t="n">
         <v>23.93</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="14" t="n">
         <v>4.7</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="n">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
-      <c r="B8" s="4"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
-      <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15" t="n">
+      <c r="C10" s="29"/>
+      <c r="D10" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="24" t="n">
         <v>1.8</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="24" t="n">
         <v>6.38</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="24" t="n">
         <v>6.38</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="n">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="J10" s="15" t="n">
+      <c r="J10" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="B12" s="4"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
@@ -2186,65 +2213,65 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15" t="n">
+      <c r="C13" s="17"/>
+      <c r="D13" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="14" t="n">
         <v>13.68</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="14" t="n">
         <v>13.68</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="n">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="n">
         <v>0.69</v>
       </c>
-      <c r="J13" s="15" t="n">
+      <c r="J13" s="14" t="n">
         <v>0.69</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="B14" s="4"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
@@ -2253,65 +2280,65 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15" t="n">
+      <c r="C16" s="17"/>
+      <c r="D16" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="14" t="n">
         <v>5.2</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="14" t="n">
         <v>25.56</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="n">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="n">
         <v>0.47</v>
       </c>
-      <c r="J16" s="15" t="n">
+      <c r="J16" s="14" t="n">
         <v>0.47</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21" t="s">
+      <c r="K16" s="16"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
       <c r="B17" s="4"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
@@ -2320,11 +2347,11 @@
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="24" t="n">
+      <c r="C19" s="17"/>
+      <c r="D19" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="30" t="n">
         <v>1.8</v>
       </c>
       <c r="F19" s="1" t="n">
@@ -2336,10 +2363,10 @@
       <c r="I19" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="K19" s="20" t="n">
+      <c r="K19" s="18" t="n">
         <v>1.3</v>
       </c>
-      <c r="L19" s="20" t="n">
+      <c r="L19" s="18" t="n">
         <v>44</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -2348,35 +2375,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="B20" s="4"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
@@ -2385,65 +2412,65 @@
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15" t="n">
+      <c r="C22" s="17"/>
+      <c r="D22" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="25" t="n">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21" t="s">
+      <c r="K22" s="16"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
       <c r="B23" s="4"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
@@ -2452,65 +2479,65 @@
       <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15" t="n">
+      <c r="C25" s="17"/>
+      <c r="D25" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F25" s="15" t="n">
+      <c r="F25" s="14" t="n">
         <v>4.28</v>
       </c>
-      <c r="G25" s="15" t="n">
+      <c r="G25" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="n">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="J25" s="25" t="n">
+      <c r="J25" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
       <c r="B26" s="4"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
@@ -2519,65 +2546,65 @@
       <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15" t="n">
+      <c r="C28" s="17"/>
+      <c r="D28" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="F28" s="14" t="n">
         <v>13.68</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="G28" s="14" t="n">
         <v>13.68</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15" t="n">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="n">
         <v>0.69</v>
       </c>
-      <c r="J28" s="25" t="n">
+      <c r="J28" s="14" t="n">
         <v>0.69</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21" t="s">
+      <c r="K28" s="16"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
       <c r="B29" s="4"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
       <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
@@ -2586,65 +2613,65 @@
       <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="15" t="n">
+      <c r="C31" s="17"/>
+      <c r="D31" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F31" s="15" t="n">
+      <c r="F31" s="14" t="n">
         <v>23.93</v>
       </c>
-      <c r="G31" s="15" t="n">
+      <c r="G31" s="14" t="n">
         <v>4.7</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="n">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="J31" s="25" t="n">
+      <c r="J31" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
       <c r="B32" s="4"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
       <c r="B33" s="4"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
@@ -2653,24 +2680,24 @@
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="24" t="n">
+      <c r="C34" s="17"/>
+      <c r="D34" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F34" s="24" t="n">
+      <c r="F34" s="30" t="n">
         <v>14.28</v>
       </c>
-      <c r="G34" s="24" t="n">
+      <c r="G34" s="30" t="n">
         <v>13.02</v>
       </c>
-      <c r="H34" s="24" t="n">
+      <c r="H34" s="30" t="n">
         <v>0.2</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="26" t="n">
+      <c r="I34" s="30"/>
+      <c r="J34" s="31" t="n">
         <v>0.69</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2679,35 +2706,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
       <c r="B35" s="4"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
       <c r="B36" s="4"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
@@ -2716,65 +2743,65 @@
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="15" t="n">
+      <c r="C37" s="17"/>
+      <c r="D37" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E37" s="15" t="n">
+      <c r="E37" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F37" s="15" t="n">
+      <c r="F37" s="14" t="n">
         <v>6.78</v>
       </c>
-      <c r="G37" s="15" t="n">
+      <c r="G37" s="14" t="n">
         <v>15.18</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="n">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14" t="n">
         <v>0.54</v>
       </c>
-      <c r="J37" s="15" t="n">
+      <c r="J37" s="14" t="n">
         <v>0.54</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21" t="s">
+      <c r="K37" s="16"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
       <c r="B38" s="4"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
       <c r="B39" s="4"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
@@ -2783,65 +2810,65 @@
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="15" t="n">
+      <c r="C40" s="17"/>
+      <c r="D40" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F40" s="15" t="n">
+      <c r="F40" s="14" t="n">
         <v>6.38</v>
       </c>
-      <c r="G40" s="15" t="n">
+      <c r="G40" s="14" t="n">
         <v>6.38</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15" t="n">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14" t="n">
         <v>0.25</v>
       </c>
-      <c r="J40" s="25" t="n">
+      <c r="J40" s="14" t="n">
         <v>0.25</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21" t="s">
+      <c r="K40" s="16"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
       <c r="B41" s="4"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
       <c r="B42" s="4"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
@@ -2850,24 +2877,24 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="24" t="n">
+      <c r="C43" s="17"/>
+      <c r="D43" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E43" s="24" t="n">
+      <c r="E43" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F43" s="24" t="n">
+      <c r="F43" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="24" t="n">
+      <c r="G43" s="30" t="n">
         <v>6.93</v>
       </c>
-      <c r="H43" s="26" t="n">
+      <c r="H43" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="26" t="n">
+      <c r="I43" s="30"/>
+      <c r="J43" s="31" t="n">
         <v>0.68</v>
       </c>
       <c r="O43" s="3" t="s">
@@ -2876,35 +2903,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
       <c r="B44" s="4"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
       <c r="B45" s="4"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
@@ -2913,24 +2940,24 @@
       <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="24" t="n">
+      <c r="C46" s="17"/>
+      <c r="D46" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E46" s="24" t="n">
+      <c r="E46" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F46" s="24" t="n">
+      <c r="F46" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="24" t="n">
+      <c r="G46" s="30" t="n">
         <v>4.89</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24" t="n">
+      <c r="H46" s="30"/>
+      <c r="I46" s="30" t="n">
         <v>0.3</v>
       </c>
-      <c r="J46" s="26" t="n">
+      <c r="J46" s="31" t="n">
         <v>0.51</v>
       </c>
       <c r="O46" s="3" t="s">
@@ -2939,35 +2966,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
       <c r="B47" s="4"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="21"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
       <c r="B48" s="4"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
@@ -2976,65 +3003,65 @@
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="15" t="n">
+      <c r="C49" s="17"/>
+      <c r="D49" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E49" s="15" t="n">
+      <c r="E49" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F49" s="15" t="n">
+      <c r="F49" s="14" t="n">
         <v>8.83</v>
       </c>
-      <c r="G49" s="15" t="n">
+      <c r="G49" s="14" t="n">
         <v>4.73</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15" t="n">
+      <c r="H49" s="14"/>
+      <c r="I49" s="14" t="n">
         <v>0.17</v>
       </c>
-      <c r="J49" s="15" t="n">
+      <c r="J49" s="14" t="n">
         <v>0.17</v>
       </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="21" t="s">
+      <c r="K49" s="16"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="50">
       <c r="B50" s="4"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51">
       <c r="B51" s="4"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
@@ -3043,65 +3070,65 @@
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="15" t="n">
+      <c r="C52" s="17"/>
+      <c r="D52" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E52" s="15" t="n">
+      <c r="E52" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F52" s="15" t="n">
+      <c r="F52" s="14" t="n">
         <v>9.1</v>
       </c>
-      <c r="G52" s="15" t="n">
+      <c r="G52" s="14" t="n">
         <v>9.1</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15" t="n">
+      <c r="H52" s="14"/>
+      <c r="I52" s="14" t="n">
         <v>0.54</v>
       </c>
-      <c r="J52" s="15" t="n">
+      <c r="J52" s="14" t="n">
         <v>0.54</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21" t="s">
+      <c r="K52" s="16"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="53">
       <c r="B53" s="4"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="21"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="54">
       <c r="B54" s="4"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
@@ -3110,65 +3137,65 @@
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="15" t="n">
+      <c r="C55" s="17"/>
+      <c r="D55" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E55" s="15" t="n">
+      <c r="E55" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F55" s="15" t="n">
+      <c r="F55" s="14" t="n">
         <v>4.43</v>
       </c>
-      <c r="G55" s="15" t="n">
+      <c r="G55" s="14" t="n">
         <v>19.97</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15" t="n">
+      <c r="H55" s="14"/>
+      <c r="I55" s="14" t="n">
         <v>0.31</v>
       </c>
-      <c r="J55" s="15" t="n">
+      <c r="J55" s="14" t="n">
         <v>0.31</v>
       </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="21" t="s">
+      <c r="K55" s="16"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="56">
       <c r="B56" s="4"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="21"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="57">
       <c r="B57" s="4"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="21"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
@@ -3177,24 +3204,24 @@
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="24" t="n">
+      <c r="C58" s="17"/>
+      <c r="D58" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E58" s="24" t="n">
+      <c r="E58" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F58" s="24" t="n">
+      <c r="F58" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="G58" s="24" t="n">
+      <c r="G58" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="H58" s="24" t="n">
+      <c r="H58" s="30" t="n">
         <v>0.3</v>
       </c>
-      <c r="I58" s="24"/>
-      <c r="J58" s="26" t="n">
+      <c r="I58" s="30"/>
+      <c r="J58" s="31" t="n">
         <v>0.62</v>
       </c>
       <c r="O58" s="3" t="s">
@@ -3203,35 +3230,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.25" outlineLevel="0" r="59">
       <c r="B59" s="4"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="21"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="60">
       <c r="B60" s="4"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="21"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
@@ -3240,65 +3267,65 @@
       <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="15" t="n">
+      <c r="C61" s="17"/>
+      <c r="D61" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E61" s="15" t="n">
+      <c r="E61" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F61" s="15" t="n">
+      <c r="F61" s="14" t="n">
         <v>10.42</v>
       </c>
-      <c r="G61" s="15" t="n">
+      <c r="G61" s="14" t="n">
         <v>10.42</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15" t="n">
+      <c r="H61" s="14"/>
+      <c r="I61" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="J61" s="15" t="n">
+      <c r="J61" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="K61" s="17"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="21" t="s">
+      <c r="K61" s="16"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="62">
       <c r="B62" s="4"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="21"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
       <c r="B63" s="4"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="21"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
@@ -3307,24 +3334,24 @@
       <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="24" t="n">
+      <c r="C64" s="17"/>
+      <c r="D64" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E64" s="24" t="n">
+      <c r="E64" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F64" s="24" t="n">
+      <c r="F64" s="30" t="n">
         <v>18.23</v>
       </c>
-      <c r="G64" s="24" t="n">
+      <c r="G64" s="30" t="n">
         <v>18.23</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24" t="n">
+      <c r="H64" s="30"/>
+      <c r="I64" s="30" t="n">
         <v>0.56</v>
       </c>
-      <c r="J64" s="24" t="n">
+      <c r="J64" s="30" t="n">
         <v>0.56</v>
       </c>
       <c r="O64" s="3" t="s">
@@ -3333,35 +3360,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
       <c r="B65" s="4"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="21"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
       <c r="B66" s="4"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="21"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
@@ -3370,24 +3397,24 @@
       <c r="B67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="24" t="n">
+      <c r="C67" s="17"/>
+      <c r="D67" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="24" t="n">
+      <c r="E67" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F67" s="24" t="n">
+      <c r="F67" s="30" t="n">
         <v>9.36</v>
       </c>
-      <c r="G67" s="24" t="n">
+      <c r="G67" s="30" t="n">
         <v>7.11</v>
       </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="26" t="n">
+      <c r="H67" s="30"/>
+      <c r="I67" s="31" t="n">
         <v>0.68</v>
       </c>
-      <c r="J67" s="26" t="n">
+      <c r="J67" s="31" t="n">
         <v>0.68</v>
       </c>
       <c r="O67" s="3" t="s">
@@ -3396,35 +3423,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
       <c r="B68" s="4"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="21"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
       <c r="B69" s="4"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="21"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
@@ -3433,33 +3460,33 @@
       <c r="B70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="24" t="n">
+      <c r="C70" s="17"/>
+      <c r="D70" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E70" s="24" t="n">
+      <c r="E70" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F70" s="24" t="n">
+      <c r="F70" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G70" s="24" t="n">
+      <c r="G70" s="30" t="n">
         <v>6.43</v>
       </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24" t="n">
+      <c r="H70" s="30"/>
+      <c r="I70" s="30" t="n">
         <v>0.65</v>
       </c>
-      <c r="J70" s="24" t="n">
+      <c r="J70" s="30" t="n">
         <v>0.65</v>
       </c>
-      <c r="K70" s="20" t="n">
+      <c r="K70" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="L70" s="20" t="n">
+      <c r="L70" s="18" t="n">
         <v>0.1</v>
       </c>
-      <c r="M70" s="20" t="n">
+      <c r="M70" s="18" t="n">
         <v>0.25</v>
       </c>
       <c r="O70" s="3" t="s">
@@ -3468,35 +3495,35 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
       <c r="B71" s="4"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="21"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
       <c r="B72" s="4"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="21"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
@@ -3505,153 +3532,153 @@
       <c r="B73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="15" t="n">
+      <c r="C73" s="17"/>
+      <c r="D73" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E73" s="15" t="n">
+      <c r="E73" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F73" s="15" t="n">
+      <c r="F73" s="14" t="n">
         <v>5.45</v>
       </c>
-      <c r="G73" s="15" t="n">
+      <c r="G73" s="14" t="n">
         <v>14.73</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15" t="n">
+      <c r="H73" s="14"/>
+      <c r="I73" s="14" t="n">
         <v>0.43</v>
       </c>
-      <c r="J73" s="15" t="n">
+      <c r="J73" s="14" t="n">
         <v>0.43</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="21" t="s">
+      <c r="K73" s="16"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="74">
       <c r="B74" s="4"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="21"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
       <c r="B75" s="4"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="21"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="15" t="n">
+      <c r="C76" s="17"/>
+      <c r="D76" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E76" s="15" t="n">
+      <c r="E76" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F76" s="15" t="n">
+      <c r="F76" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G76" s="15" t="n">
+      <c r="G76" s="14" t="n">
         <v>18.24</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15" t="n">
+      <c r="H76" s="14"/>
+      <c r="I76" s="14" t="n">
         <v>0.3</v>
       </c>
-      <c r="J76" s="26" t="n">
+      <c r="J76" s="31" t="n">
         <v>0.83</v>
       </c>
-      <c r="K76" s="17"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="77">
       <c r="B77" s="4"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="21"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="78">
       <c r="B78" s="4"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="21"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="24" t="n">
+      <c r="C79" s="17"/>
+      <c r="D79" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E79" s="24" t="n">
+      <c r="E79" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F79" s="24" t="n">
+      <c r="F79" s="30" t="n">
         <v>14.75</v>
       </c>
-      <c r="G79" s="24" t="n">
+      <c r="G79" s="30" t="n">
         <v>8.97</v>
       </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24" t="n">
+      <c r="H79" s="30"/>
+      <c r="I79" s="30" t="n">
         <v>0.3</v>
       </c>
-      <c r="J79" s="26" t="n">
+      <c r="J79" s="31" t="n">
         <v>0.63</v>
       </c>
       <c r="O79" s="3" t="s">
@@ -3660,58 +3687,58 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="80">
       <c r="B80" s="4"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="21"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
       <c r="B81" s="4"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="21"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="24" t="n">
+      <c r="C82" s="17"/>
+      <c r="D82" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E82" s="24" t="n">
+      <c r="E82" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F82" s="24" t="n">
+      <c r="F82" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G82" s="24" t="n">
+      <c r="G82" s="30" t="n">
         <v>7.74</v>
       </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24" t="n">
+      <c r="H82" s="30"/>
+      <c r="I82" s="30" t="n">
         <v>0.1</v>
       </c>
-      <c r="J82" s="26" t="n">
+      <c r="J82" s="31" t="n">
         <v>0.71</v>
       </c>
       <c r="O82" s="3" t="s">
@@ -3719,57 +3746,57 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
-      <c r="C83" s="22"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="21"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="84">
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="21"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="24" t="n">
+      <c r="C85" s="17"/>
+      <c r="D85" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E85" s="24" t="n">
+      <c r="E85" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F85" s="24" t="n">
+      <c r="F85" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G85" s="24" t="n">
+      <c r="G85" s="30" t="n">
         <v>5.59</v>
       </c>
-      <c r="H85" s="24" t="n">
+      <c r="H85" s="30" t="n">
         <v>0.2</v>
       </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="26" t="n">
+      <c r="I85" s="30"/>
+      <c r="J85" s="31" t="n">
         <v>0.59</v>
       </c>
       <c r="O85" s="3" t="s">
@@ -3777,57 +3804,57 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="86">
-      <c r="C86" s="22"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="21"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="87">
-      <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="21"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="24" t="n">
+      <c r="C88" s="17"/>
+      <c r="D88" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E88" s="24" t="n">
+      <c r="E88" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F88" s="24" t="n">
+      <c r="F88" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G88" s="24" t="n">
+      <c r="G88" s="30" t="n">
         <v>6.61</v>
       </c>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24" t="n">
+      <c r="H88" s="30"/>
+      <c r="I88" s="30" t="n">
         <v>0.3</v>
       </c>
-      <c r="J88" s="26" t="n">
+      <c r="J88" s="31" t="n">
         <v>0.66</v>
       </c>
       <c r="O88" s="3" t="s">
@@ -3835,52 +3862,52 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="89">
-      <c r="C89" s="22"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="21"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="90">
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="24" t="n">
+      <c r="C91" s="17"/>
+      <c r="D91" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E91" s="24" t="n">
+      <c r="E91" s="30" t="n">
         <v>1.8</v>
       </c>
-      <c r="F91" s="24" t="n">
+      <c r="F91" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G91" s="24" t="n">
+      <c r="G91" s="30" t="n">
         <v>6.94</v>
       </c>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24" t="n">
+      <c r="H91" s="30"/>
+      <c r="I91" s="30" t="n">
         <v>0.67</v>
       </c>
-      <c r="J91" s="24" t="n">
+      <c r="J91" s="30" t="n">
         <v>0.68</v>
       </c>
       <c r="O91" s="3" t="s">
@@ -3888,47 +3915,47 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
-      <c r="C92" s="22"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="93">
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="15" t="n">
+      <c r="C94" s="17"/>
+      <c r="D94" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E94" s="15" t="n">
+      <c r="E94" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F94" s="24" t="n">
+      <c r="F94" s="30" t="n">
         <v>7.43</v>
       </c>
-      <c r="G94" s="24" t="n">
+      <c r="G94" s="30" t="n">
         <v>7.43</v>
       </c>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24" t="n">
+      <c r="H94" s="30"/>
+      <c r="I94" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="J94" s="24" t="n">
+      <c r="J94" s="30" t="n">
         <v>0.4</v>
       </c>
       <c r="O94" s="3" t="s">
@@ -3936,47 +3963,47 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="95">
-      <c r="C95" s="22"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="96">
-      <c r="C96" s="14"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="15" t="n">
+      <c r="C97" s="17"/>
+      <c r="D97" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E97" s="15" t="n">
+      <c r="E97" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F97" s="24" t="n">
+      <c r="F97" s="30" t="n">
         <v>8.85</v>
       </c>
-      <c r="G97" s="24" t="n">
+      <c r="G97" s="30" t="n">
         <v>10.48</v>
       </c>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24" t="n">
+      <c r="H97" s="30"/>
+      <c r="I97" s="30" t="n">
         <v>0.57</v>
       </c>
-      <c r="J97" s="24" t="n">
+      <c r="J97" s="30" t="n">
         <v>0.57</v>
       </c>
       <c r="O97" s="3" t="s">
@@ -3984,47 +4011,47 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="98">
-      <c r="C98" s="22"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="99">
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="15" t="n">
+      <c r="C100" s="17"/>
+      <c r="D100" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="15" t="n">
+      <c r="E100" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F100" s="24" t="n">
+      <c r="F100" s="30" t="n">
         <v>5.89</v>
       </c>
-      <c r="G100" s="24" t="n">
+      <c r="G100" s="30" t="n">
         <v>13.5</v>
       </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24" t="n">
+      <c r="H100" s="30"/>
+      <c r="I100" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="J100" s="24" t="n">
+      <c r="J100" s="30" t="n">
         <v>0.38</v>
       </c>
       <c r="O100" s="3" t="s">
@@ -4032,47 +4059,47 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="101">
-      <c r="C101" s="22"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="102">
-      <c r="C102" s="14"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="15" t="n">
+      <c r="C103" s="17"/>
+      <c r="D103" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E103" s="15" t="n">
+      <c r="E103" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F103" s="24" t="n">
+      <c r="F103" s="30" t="n">
         <v>15.53</v>
       </c>
-      <c r="G103" s="24" t="n">
+      <c r="G103" s="30" t="n">
         <v>5.56</v>
       </c>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24" t="n">
+      <c r="H103" s="30"/>
+      <c r="I103" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="J103" s="24" t="n">
+      <c r="J103" s="30" t="n">
         <v>0.45</v>
       </c>
       <c r="O103" s="3" t="s">
@@ -4080,47 +4107,47 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="104">
-      <c r="C104" s="22"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="105">
-      <c r="C105" s="14"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="15" t="n">
+      <c r="C106" s="17"/>
+      <c r="D106" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E106" s="15" t="n">
+      <c r="E106" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="F106" s="24" t="n">
+      <c r="F106" s="30" t="n">
         <v>9.26</v>
       </c>
-      <c r="G106" s="24" t="n">
+      <c r="G106" s="30" t="n">
         <v>9.26</v>
       </c>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24" t="n">
+      <c r="H106" s="30"/>
+      <c r="I106" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="J106" s="24" t="n">
+      <c r="J106" s="30" t="n">
         <v>0.55</v>
       </c>
       <c r="O106" s="3" t="s">
@@ -4128,14 +4155,14 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="107">
-      <c r="C107" s="22"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
